--- a/fuentes/visuales/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC70.xlsx
+++ b/fuentes/visuales/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC70.xlsx
@@ -2362,9 +2362,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2576,17 +2576,17 @@
       <c r="E10" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="14" t="e">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE(#REF!,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="14" t="e">
+      <c r="F10" s="14" t="str">
+        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_10_02_CO_F1n.png</v>
+      </c>
+      <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="14" t="e">
-        <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE(#REF!,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H10" s="14" t="str">
+        <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CN_10_02_CO_F1a.png</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2616,17 +2616,17 @@
       <c r="E11" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="14" t="e">
-        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(#REF!,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="14" t="e">
+      <c r="F11" s="14" t="str">
+        <f t="shared" ref="F11:F74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_10_02_CO_F2n.png</v>
+      </c>
+      <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="14" t="e">
-        <f>IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(#REF!,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H11" s="14" t="str">
+        <f t="shared" ref="H11:H74" si="1">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CN_10_02_CO_F2a.png</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2645,7 +2645,7 @@
         <v>155</v>
       </c>
       <c r="C12" s="74" t="str">
-        <f t="shared" ref="C12:C18" si="0">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C12:C18" si="2">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M7A</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -2654,17 +2654,17 @@
       <c r="E12" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="14" t="e">
-        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(#REF!,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="14" t="e">
+      <c r="F12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CN_10_02_CO_F3n.png</v>
+      </c>
+      <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="14" t="e">
-        <f>IF(AND(I12&lt;&gt;"",I12&lt;&gt;0),IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(#REF!,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_F3a.png</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2683,7 +2683,7 @@
         <v>155</v>
       </c>
       <c r="C13" s="74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -2692,17 +2692,17 @@
       <c r="E13" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="14" t="e">
-        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(#REF!,"_",$A13,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I13="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="14" t="e">
+      <c r="F13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CN_10_02_CO_F4n.png</v>
+      </c>
+      <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="14" t="e">
-        <f>IF(AND(I13&lt;&gt;"",I13&lt;&gt;0),IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(#REF!,"_",$A13,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_F4a.png</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2721,7 +2721,7 @@
         <v>151</v>
       </c>
       <c r="C14" s="74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -2730,17 +2730,17 @@
       <c r="E14" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="14" t="e">
-        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(#REF!,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="14" t="e">
+      <c r="F14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CN_10_02_CO_F5n.png</v>
+      </c>
+      <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="14" t="e">
-        <f>IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(#REF!,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_F5a.png</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2761,7 +2761,7 @@
         <v>166</v>
       </c>
       <c r="C15" s="74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -2770,17 +2770,17 @@
       <c r="E15" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="14" t="e">
-        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE(#REF!,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="14" t="e">
+      <c r="F15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CN_10_02_CO_F6n.png</v>
+      </c>
+      <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="14" t="e">
-        <f>IF(AND(I15&lt;&gt;"",I15&lt;&gt;0),IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE(#REF!,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_F6a.png</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2799,7 +2799,7 @@
         <v>166</v>
       </c>
       <c r="C16" s="74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -2808,17 +2808,17 @@
       <c r="E16" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="14" t="e">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE(#REF!,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="14" t="e">
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CN_10_02_CO_F7n.png</v>
+      </c>
+      <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="14" t="e">
-        <f>IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE(#REF!,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_F7a.png</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2837,7 +2837,7 @@
         <v>166</v>
       </c>
       <c r="C17" s="74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Recurso M7A</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -2846,17 +2846,17 @@
       <c r="E17" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="14" t="e">
-        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE(#REF!,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="14" t="e">
+      <c r="F17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CN_10_02_CO_F8n.png</v>
+      </c>
+      <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="14" t="e">
-        <f>IF(AND(I17&lt;&gt;"",I17&lt;&gt;0),IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE(#REF!,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_F8a.png</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2871,13 +2871,13 @@
       <c r="A18" s="76"/>
       <c r="B18" s="77"/>
       <c r="C18" s="74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="str">
-        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE(#REF!,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G18" s="14" t="str">
@@ -2885,7 +2885,7 @@
         <v/>
       </c>
       <c r="H18" s="14" t="str">
-        <f>IF(AND(I18&lt;&gt;"",I18&lt;&gt;0),IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE(#REF!,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I18" s="14" t="str">
@@ -2902,7 +2902,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="str">
-        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(#REF!,"_",$A19,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I19="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G19" s="14" t="str">
@@ -2910,7 +2910,7 @@
         <v/>
       </c>
       <c r="H19" s="14" t="str">
-        <f>IF(AND(I19&lt;&gt;"",I19&lt;&gt;0),IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(#REF!,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I19" s="14" t="str">
@@ -2927,7 +2927,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="str">
-        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(#REF!,"_",$A20,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I20="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G20" s="14" t="str">
@@ -2935,7 +2935,7 @@
         <v/>
       </c>
       <c r="H20" s="14" t="str">
-        <f>IF(AND(I20&lt;&gt;"",I20&lt;&gt;0),IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(#REF!,"_",$A20,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I20" s="14" t="str">
@@ -2952,7 +2952,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="str">
-        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE(#REF!,"_",$A21,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I21="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G21" s="14" t="str">
@@ -2960,7 +2960,7 @@
         <v/>
       </c>
       <c r="H21" s="14" t="str">
-        <f>IF(AND(I21&lt;&gt;"",I21&lt;&gt;0),IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE(#REF!,"_",$A21,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I21" s="14" t="str">
@@ -2977,7 +2977,7 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="str">
-        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE(#REF!,"_",$A22,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I22="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G22" s="14" t="str">
@@ -2985,7 +2985,7 @@
         <v/>
       </c>
       <c r="H22" s="14" t="str">
-        <f>IF(AND(I22&lt;&gt;"",I22&lt;&gt;0),IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE(#REF!,"_",$A22,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I22" s="14" t="str">
@@ -3002,7 +3002,7 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="str">
-        <f>IF(OR(B22&lt;&gt;"",J23&lt;&gt;""),CONCATENATE(#REF!,"_",$A23,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I23="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G23" s="14" t="str">
@@ -3010,7 +3010,7 @@
         <v/>
       </c>
       <c r="H23" s="14" t="str">
-        <f>IF(AND(I23&lt;&gt;"",I23&lt;&gt;0),IF(OR(B22&lt;&gt;"",J23&lt;&gt;""),CONCATENATE(#REF!,"_",$A23,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I23" s="14" t="str">
@@ -3027,7 +3027,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="str">
-        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),CONCATENATE(#REF!,"_",$A24,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I24="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G24" s="14" t="str">
@@ -3035,7 +3035,7 @@
         <v/>
       </c>
       <c r="H24" s="14" t="str">
-        <f>IF(AND(I24&lt;&gt;"",I24&lt;&gt;0),IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),CONCATENATE(#REF!,"_",$A24,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I24" s="14" t="str">
@@ -3052,7 +3052,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="str">
-        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),CONCATENATE(#REF!,"_",$A25,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I25="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G25" s="14" t="str">
@@ -3060,7 +3060,7 @@
         <v/>
       </c>
       <c r="H25" s="14" t="str">
-        <f>IF(AND(I25&lt;&gt;"",I25&lt;&gt;0),IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),CONCATENATE(#REF!,"_",$A25,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I25" s="14" t="str">
@@ -3077,7 +3077,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="str">
-        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),CONCATENATE(#REF!,"_",$A26,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I26="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G26" s="14" t="str">
@@ -3085,7 +3085,7 @@
         <v/>
       </c>
       <c r="H26" s="14" t="str">
-        <f>IF(AND(I26&lt;&gt;"",I26&lt;&gt;0),IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),CONCATENATE(#REF!,"_",$A26,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I26" s="14" t="str">
@@ -3102,7 +3102,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="str">
-        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(#REF!,"_",$A27,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I27="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G27" s="14" t="str">
@@ -3110,7 +3110,7 @@
         <v/>
       </c>
       <c r="H27" s="14" t="str">
-        <f>IF(AND(I27&lt;&gt;"",I27&lt;&gt;0),IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(#REF!,"_",$A27,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I27" s="14" t="str">
@@ -3127,7 +3127,7 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="str">
-        <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),CONCATENATE(#REF!,"_",$A28,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I28="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G28" s="14" t="str">
@@ -3135,7 +3135,7 @@
         <v/>
       </c>
       <c r="H28" s="14" t="str">
-        <f>IF(AND(I28&lt;&gt;"",I28&lt;&gt;0),IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),CONCATENATE(#REF!,"_",$A28,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I28" s="14" t="str">
@@ -3152,7 +3152,7 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="str">
-        <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),CONCATENATE(#REF!,"_",$A29,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I29="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G29" s="14" t="str">
@@ -3160,7 +3160,7 @@
         <v/>
       </c>
       <c r="H29" s="14" t="str">
-        <f>IF(AND(I29&lt;&gt;"",I29&lt;&gt;0),IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),CONCATENATE(#REF!,"_",$A29,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I29" s="14" t="str">
@@ -3177,7 +3177,7 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="str">
-        <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE(#REF!,"_",$A30,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I30="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G30" s="14" t="str">
@@ -3185,7 +3185,7 @@
         <v/>
       </c>
       <c r="H30" s="14" t="str">
-        <f>IF(AND(I30&lt;&gt;"",I30&lt;&gt;0),IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE(#REF!,"_",$A30,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I30" s="14" t="str">
@@ -3202,7 +3202,7 @@
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="str">
-        <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),CONCATENATE(#REF!,"_",$A31,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I31="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G31" s="14" t="str">
@@ -3210,7 +3210,7 @@
         <v/>
       </c>
       <c r="H31" s="14" t="str">
-        <f>IF(AND(I31&lt;&gt;"",I31&lt;&gt;0),IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),CONCATENATE(#REF!,"_",$A31,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I31" s="14" t="str">
@@ -3227,7 +3227,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="str">
-        <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),CONCATENATE(#REF!,"_",$A32,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I32="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G32" s="14" t="str">
@@ -3235,7 +3235,7 @@
         <v/>
       </c>
       <c r="H32" s="14" t="str">
-        <f>IF(AND(I32&lt;&gt;"",I32&lt;&gt;0),IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),CONCATENATE(#REF!,"_",$A32,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I32" s="14" t="str">
@@ -3252,7 +3252,7 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14" t="str">
-        <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE(#REF!,"_",$A33,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I33="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G33" s="14" t="str">
@@ -3260,7 +3260,7 @@
         <v/>
       </c>
       <c r="H33" s="14" t="str">
-        <f>IF(AND(I33&lt;&gt;"",I33&lt;&gt;0),IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE(#REF!,"_",$A33,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I33" s="14" t="str">
@@ -3277,7 +3277,7 @@
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="str">
-        <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),CONCATENATE(#REF!,"_",$A34,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I34="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G34" s="14" t="str">
@@ -3285,7 +3285,7 @@
         <v/>
       </c>
       <c r="H34" s="14" t="str">
-        <f>IF(AND(I34&lt;&gt;"",I34&lt;&gt;0),IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),CONCATENATE(#REF!,"_",$A34,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I34" s="14" t="str">
@@ -3302,7 +3302,7 @@
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
-        <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE(#REF!,"_",$A35,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I35="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G35" s="14" t="str">
@@ -3310,7 +3310,7 @@
         <v/>
       </c>
       <c r="H35" s="14" t="str">
-        <f>IF(AND(I35&lt;&gt;"",I35&lt;&gt;0),IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE(#REF!,"_",$A35,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I35" s="14" t="str">
@@ -3327,7 +3327,7 @@
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
-        <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE(#REF!,"_",$A36,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I36="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G36" s="14" t="str">
@@ -3335,7 +3335,7 @@
         <v/>
       </c>
       <c r="H36" s="14" t="str">
-        <f>IF(AND(I36&lt;&gt;"",I36&lt;&gt;0),IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE(#REF!,"_",$A36,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I36" s="14" t="str">
@@ -3352,7 +3352,7 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
-        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),CONCATENATE(#REF!,"_",$A37,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I37="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G37" s="14" t="str">
@@ -3360,7 +3360,7 @@
         <v/>
       </c>
       <c r="H37" s="14" t="str">
-        <f>IF(AND(I37&lt;&gt;"",I37&lt;&gt;0),IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),CONCATENATE(#REF!,"_",$A37,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I37" s="14" t="str">
@@ -3377,7 +3377,7 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
-        <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),CONCATENATE(#REF!,"_",$A38,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I38="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G38" s="14" t="str">
@@ -3385,7 +3385,7 @@
         <v/>
       </c>
       <c r="H38" s="14" t="str">
-        <f>IF(AND(I38&lt;&gt;"",I38&lt;&gt;0),IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),CONCATENATE(#REF!,"_",$A38,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I38" s="14" t="str">
@@ -3402,7 +3402,7 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="str">
-        <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),CONCATENATE(#REF!,"_",$A39,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I39="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G39" s="14" t="str">
@@ -3410,7 +3410,7 @@
         <v/>
       </c>
       <c r="H39" s="14" t="str">
-        <f>IF(AND(I39&lt;&gt;"",I39&lt;&gt;0),IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),CONCATENATE(#REF!,"_",$A39,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I39" s="14" t="str">
@@ -3427,7 +3427,7 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="str">
-        <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),CONCATENATE(#REF!,"_",$A40,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I40="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G40" s="14" t="str">
@@ -3435,7 +3435,7 @@
         <v/>
       </c>
       <c r="H40" s="14" t="str">
-        <f>IF(AND(I40&lt;&gt;"",I40&lt;&gt;0),IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),CONCATENATE(#REF!,"_",$A40,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I40" s="14" t="str">
@@ -3452,7 +3452,7 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="str">
-        <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),CONCATENATE(#REF!,"_",$A41,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I41="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G41" s="14" t="str">
@@ -3460,7 +3460,7 @@
         <v/>
       </c>
       <c r="H41" s="14" t="str">
-        <f>IF(AND(I41&lt;&gt;"",I41&lt;&gt;0),IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),CONCATENATE(#REF!,"_",$A41,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I41" s="14" t="str">
@@ -3477,7 +3477,7 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="str">
-        <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),CONCATENATE(#REF!,"_",$A42,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I42="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G42" s="14" t="str">
@@ -3485,7 +3485,7 @@
         <v/>
       </c>
       <c r="H42" s="14" t="str">
-        <f>IF(AND(I42&lt;&gt;"",I42&lt;&gt;0),IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),CONCATENATE(#REF!,"_",$A42,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I42" s="14" t="str">
@@ -3502,7 +3502,7 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14" t="str">
-        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),CONCATENATE(#REF!,"_",$A43,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I43="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
@@ -3510,7 +3510,7 @@
         <v/>
       </c>
       <c r="H43" s="14" t="str">
-        <f>IF(AND(I43&lt;&gt;"",I43&lt;&gt;0),IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),CONCATENATE(#REF!,"_",$A43,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I43" s="14" t="str">
@@ -3527,7 +3527,7 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="str">
-        <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),CONCATENATE(#REF!,"_",$A44,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I44="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G44" s="14" t="str">
@@ -3535,7 +3535,7 @@
         <v/>
       </c>
       <c r="H44" s="14" t="str">
-        <f>IF(AND(I44&lt;&gt;"",I44&lt;&gt;0),IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),CONCATENATE(#REF!,"_",$A44,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I44" s="14" t="str">
@@ -3552,7 +3552,7 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="str">
-        <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),CONCATENATE(#REF!,"_",$A45,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I45="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G45" s="14" t="str">
@@ -3560,7 +3560,7 @@
         <v/>
       </c>
       <c r="H45" s="14" t="str">
-        <f>IF(AND(I45&lt;&gt;"",I45&lt;&gt;0),IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),CONCATENATE(#REF!,"_",$A45,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I45" s="14" t="str">
@@ -3577,7 +3577,7 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="str">
-        <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),CONCATENATE(#REF!,"_",$A46,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I46="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G46" s="14" t="str">
@@ -3585,7 +3585,7 @@
         <v/>
       </c>
       <c r="H46" s="14" t="str">
-        <f>IF(AND(I46&lt;&gt;"",I46&lt;&gt;0),IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),CONCATENATE(#REF!,"_",$A46,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I46" s="14" t="str">
@@ -3602,7 +3602,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="str">
-        <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),CONCATENATE(#REF!,"_",$A47,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I47="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G47" s="14" t="str">
@@ -3610,7 +3610,7 @@
         <v/>
       </c>
       <c r="H47" s="14" t="str">
-        <f>IF(AND(I47&lt;&gt;"",I47&lt;&gt;0),IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),CONCATENATE(#REF!,"_",$A47,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I47" s="14" t="str">
@@ -3627,7 +3627,7 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="str">
-        <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),CONCATENATE(#REF!,"_",$A48,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I48="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G48" s="14" t="str">
@@ -3635,7 +3635,7 @@
         <v/>
       </c>
       <c r="H48" s="14" t="str">
-        <f>IF(AND(I48&lt;&gt;"",I48&lt;&gt;0),IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),CONCATENATE(#REF!,"_",$A48,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I48" s="14" t="str">
@@ -3652,7 +3652,7 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="str">
-        <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),CONCATENATE(#REF!,"_",$A49,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I49="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G49" s="14" t="str">
@@ -3660,7 +3660,7 @@
         <v/>
       </c>
       <c r="H49" s="14" t="str">
-        <f>IF(AND(I49&lt;&gt;"",I49&lt;&gt;0),IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),CONCATENATE(#REF!,"_",$A49,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I49" s="14" t="str">
@@ -3677,7 +3677,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="str">
-        <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),CONCATENATE(#REF!,"_",$A50,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I50="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G50" s="14" t="str">
@@ -3685,7 +3685,7 @@
         <v/>
       </c>
       <c r="H50" s="14" t="str">
-        <f>IF(AND(I50&lt;&gt;"",I50&lt;&gt;0),IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),CONCATENATE(#REF!,"_",$A50,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I50" s="14" t="str">
@@ -3702,7 +3702,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="str">
-        <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(#REF!,"_",$A51,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I51="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G51" s="14" t="str">
@@ -3710,7 +3710,7 @@
         <v/>
       </c>
       <c r="H51" s="14" t="str">
-        <f>IF(AND(I51&lt;&gt;"",I51&lt;&gt;0),IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(#REF!,"_",$A51,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I51" s="14" t="str">
@@ -3727,7 +3727,7 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="str">
-        <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),CONCATENATE(#REF!,"_",$A52,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I52="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G52" s="14" t="str">
@@ -3735,7 +3735,7 @@
         <v/>
       </c>
       <c r="H52" s="14" t="str">
-        <f>IF(AND(I52&lt;&gt;"",I52&lt;&gt;0),IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),CONCATENATE(#REF!,"_",$A52,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I52" s="14" t="str">
@@ -3752,7 +3752,7 @@
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="str">
-        <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),CONCATENATE(#REF!,"_",$A53,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I53="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G53" s="14" t="str">
@@ -3760,7 +3760,7 @@
         <v/>
       </c>
       <c r="H53" s="14" t="str">
-        <f>IF(AND(I53&lt;&gt;"",I53&lt;&gt;0),IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),CONCATENATE(#REF!,"_",$A53,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I53" s="14" t="str">
@@ -3777,7 +3777,7 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="str">
-        <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),CONCATENATE(#REF!,"_",$A54,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I54="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G54" s="14" t="str">
@@ -3785,7 +3785,7 @@
         <v/>
       </c>
       <c r="H54" s="14" t="str">
-        <f>IF(AND(I54&lt;&gt;"",I54&lt;&gt;0),IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),CONCATENATE(#REF!,"_",$A54,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I54" s="14" t="str">
@@ -3802,7 +3802,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="str">
-        <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),CONCATENATE(#REF!,"_",$A55,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I55="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G55" s="14" t="str">
@@ -3810,7 +3810,7 @@
         <v/>
       </c>
       <c r="H55" s="14" t="str">
-        <f>IF(AND(I55&lt;&gt;"",I55&lt;&gt;0),IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),CONCATENATE(#REF!,"_",$A55,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I55" s="14" t="str">
@@ -3827,7 +3827,7 @@
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="str">
-        <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),CONCATENATE(#REF!,"_",$A56,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I56="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G56" s="14" t="str">
@@ -3835,7 +3835,7 @@
         <v/>
       </c>
       <c r="H56" s="14" t="str">
-        <f>IF(AND(I56&lt;&gt;"",I56&lt;&gt;0),IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),CONCATENATE(#REF!,"_",$A56,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I56" s="14" t="str">
@@ -3852,7 +3852,7 @@
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="str">
-        <f>IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),CONCATENATE(#REF!,"_",$A57,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I57="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G57" s="14" t="str">
@@ -3860,7 +3860,7 @@
         <v/>
       </c>
       <c r="H57" s="14" t="str">
-        <f>IF(AND(I57&lt;&gt;"",I57&lt;&gt;0),IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),CONCATENATE(#REF!,"_",$A57,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I57" s="14" t="str">
@@ -3877,7 +3877,7 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="str">
-        <f>IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),CONCATENATE(#REF!,"_",$A58,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I58="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G58" s="14" t="str">
@@ -3885,7 +3885,7 @@
         <v/>
       </c>
       <c r="H58" s="14" t="str">
-        <f>IF(AND(I58&lt;&gt;"",I58&lt;&gt;0),IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),CONCATENATE(#REF!,"_",$A58,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I58" s="14" t="str">
@@ -3902,7 +3902,7 @@
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
-        <f>IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),CONCATENATE(#REF!,"_",$A59,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I59="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G59" s="14" t="str">
@@ -3910,7 +3910,7 @@
         <v/>
       </c>
       <c r="H59" s="14" t="str">
-        <f>IF(AND(I59&lt;&gt;"",I59&lt;&gt;0),IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),CONCATENATE(#REF!,"_",$A59,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I59" s="14" t="str">
@@ -3927,7 +3927,7 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
-        <f>IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),CONCATENATE(#REF!,"_",$A60,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I60="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G60" s="14" t="str">
@@ -3935,7 +3935,7 @@
         <v/>
       </c>
       <c r="H60" s="14" t="str">
-        <f>IF(AND(I60&lt;&gt;"",I60&lt;&gt;0),IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),CONCATENATE(#REF!,"_",$A60,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I60" s="14" t="str">
@@ -3952,7 +3952,7 @@
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
-        <f>IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),CONCATENATE(#REF!,"_",$A61,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I61="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G61" s="14" t="str">
@@ -3960,7 +3960,7 @@
         <v/>
       </c>
       <c r="H61" s="14" t="str">
-        <f>IF(AND(I61&lt;&gt;"",I61&lt;&gt;0),IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),CONCATENATE(#REF!,"_",$A61,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I61" s="14" t="str">
@@ -3977,7 +3977,7 @@
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
-        <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),CONCATENATE(#REF!,"_",$A62,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I62="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G62" s="14" t="str">
@@ -3985,7 +3985,7 @@
         <v/>
       </c>
       <c r="H62" s="14" t="str">
-        <f>IF(AND(I62&lt;&gt;"",I62&lt;&gt;0),IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),CONCATENATE(#REF!,"_",$A62,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I62" s="14" t="str">
@@ -4002,7 +4002,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
-        <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),CONCATENATE(#REF!,"_",$A63,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I63="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G63" s="14" t="str">
@@ -4010,7 +4010,7 @@
         <v/>
       </c>
       <c r="H63" s="14" t="str">
-        <f>IF(AND(I63&lt;&gt;"",I63&lt;&gt;0),IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),CONCATENATE(#REF!,"_",$A63,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I63" s="14" t="str">
@@ -4027,7 +4027,7 @@
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="str">
-        <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),CONCATENATE(#REF!,"_",$A64,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I64="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G64" s="14" t="str">
@@ -4035,7 +4035,7 @@
         <v/>
       </c>
       <c r="H64" s="14" t="str">
-        <f>IF(AND(I64&lt;&gt;"",I64&lt;&gt;0),IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),CONCATENATE(#REF!,"_",$A64,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I64" s="14" t="str">
@@ -4052,7 +4052,7 @@
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="str">
-        <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),CONCATENATE(#REF!,"_",$A65,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I65="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G65" s="14" t="str">
@@ -4060,7 +4060,7 @@
         <v/>
       </c>
       <c r="H65" s="14" t="str">
-        <f>IF(AND(I65&lt;&gt;"",I65&lt;&gt;0),IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),CONCATENATE(#REF!,"_",$A65,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I65" s="14" t="str">
@@ -4077,7 +4077,7 @@
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="str">
-        <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),CONCATENATE(#REF!,"_",$A66,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I66="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G66" s="14" t="str">
@@ -4085,7 +4085,7 @@
         <v/>
       </c>
       <c r="H66" s="14" t="str">
-        <f>IF(AND(I66&lt;&gt;"",I66&lt;&gt;0),IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),CONCATENATE(#REF!,"_",$A66,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I66" s="14" t="str">
@@ -4102,7 +4102,7 @@
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="str">
-        <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),CONCATENATE(#REF!,"_",$A67,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I67="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G67" s="14" t="str">
@@ -4110,7 +4110,7 @@
         <v/>
       </c>
       <c r="H67" s="14" t="str">
-        <f>IF(AND(I67&lt;&gt;"",I67&lt;&gt;0),IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),CONCATENATE(#REF!,"_",$A67,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I67" s="14" t="str">
@@ -4127,7 +4127,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="str">
-        <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),CONCATENATE(#REF!,"_",$A68,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I68="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G68" s="14" t="str">
@@ -4135,7 +4135,7 @@
         <v/>
       </c>
       <c r="H68" s="14" t="str">
-        <f>IF(AND(I68&lt;&gt;"",I68&lt;&gt;0),IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),CONCATENATE(#REF!,"_",$A68,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I68" s="14" t="str">
@@ -4152,7 +4152,7 @@
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="str">
-        <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),CONCATENATE(#REF!,"_",$A69,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I69="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G69" s="14" t="str">
@@ -4160,7 +4160,7 @@
         <v/>
       </c>
       <c r="H69" s="14" t="str">
-        <f>IF(AND(I69&lt;&gt;"",I69&lt;&gt;0),IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),CONCATENATE(#REF!,"_",$A69,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I69" s="14" t="str">
@@ -4177,7 +4177,7 @@
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14" t="str">
-        <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),CONCATENATE(#REF!,"_",$A70,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I70="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G70" s="14" t="str">
@@ -4185,7 +4185,7 @@
         <v/>
       </c>
       <c r="H70" s="14" t="str">
-        <f>IF(AND(I70&lt;&gt;"",I70&lt;&gt;0),IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),CONCATENATE(#REF!,"_",$A70,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I70" s="14" t="str">
@@ -4202,7 +4202,7 @@
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="str">
-        <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),CONCATENATE(#REF!,"_",$A71,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I71="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G71" s="14" t="str">
@@ -4210,7 +4210,7 @@
         <v/>
       </c>
       <c r="H71" s="14" t="str">
-        <f>IF(AND(I71&lt;&gt;"",I71&lt;&gt;0),IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),CONCATENATE(#REF!,"_",$A71,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I71" s="14" t="str">
@@ -4227,7 +4227,7 @@
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="str">
-        <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE(#REF!,"_",$A72,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I72="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G72" s="14" t="str">
@@ -4235,7 +4235,7 @@
         <v/>
       </c>
       <c r="H72" s="14" t="str">
-        <f>IF(AND(I72&lt;&gt;"",I72&lt;&gt;0),IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE(#REF!,"_",$A72,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I72" s="14" t="str">
@@ -4252,7 +4252,7 @@
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="str">
-        <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),CONCATENATE(#REF!,"_",$A73,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I73="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G73" s="14" t="str">
@@ -4260,7 +4260,7 @@
         <v/>
       </c>
       <c r="H73" s="14" t="str">
-        <f>IF(AND(I73&lt;&gt;"",I73&lt;&gt;0),IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),CONCATENATE(#REF!,"_",$A73,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I73" s="14" t="str">
@@ -4277,7 +4277,7 @@
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="str">
-        <f>IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),CONCATENATE(#REF!,"_",$A74,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I74="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G74" s="14" t="str">
@@ -4285,7 +4285,7 @@
         <v/>
       </c>
       <c r="H74" s="14" t="str">
-        <f>IF(AND(I74&lt;&gt;"",I74&lt;&gt;0),IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),CONCATENATE(#REF!,"_",$A74,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I74" s="14" t="str">
@@ -4302,7 +4302,7 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f>IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE(#REF!,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F75:F109" si="3">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -4310,7 +4310,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f>IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE(#REF!,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H75:H109" si="4">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -4327,7 +4327,7 @@
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="str">
-        <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE(#REF!,"_",$A76,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I76="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G76" s="14" t="str">
@@ -4335,7 +4335,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f>IF(AND(I76&lt;&gt;"",I76&lt;&gt;0),IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE(#REF!,"_",$A76,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -4352,7 +4352,7 @@
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="str">
-        <f>IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),CONCATENATE(#REF!,"_",$A77,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I77="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G77" s="14" t="str">
@@ -4360,7 +4360,7 @@
         <v/>
       </c>
       <c r="H77" s="14" t="str">
-        <f>IF(AND(I77&lt;&gt;"",I77&lt;&gt;0),IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),CONCATENATE(#REF!,"_",$A77,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I77" s="14" t="str">
@@ -4377,7 +4377,7 @@
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="str">
-        <f>IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),CONCATENATE(#REF!,"_",$A78,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I78="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G78" s="14" t="str">
@@ -4385,7 +4385,7 @@
         <v/>
       </c>
       <c r="H78" s="14" t="str">
-        <f>IF(AND(I78&lt;&gt;"",I78&lt;&gt;0),IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),CONCATENATE(#REF!,"_",$A78,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I78" s="14" t="str">
@@ -4402,7 +4402,7 @@
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="str">
-        <f>IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),CONCATENATE(#REF!,"_",$A79,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I79="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G79" s="14" t="str">
@@ -4410,7 +4410,7 @@
         <v/>
       </c>
       <c r="H79" s="14" t="str">
-        <f>IF(AND(I79&lt;&gt;"",I79&lt;&gt;0),IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),CONCATENATE(#REF!,"_",$A79,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I79" s="14" t="str">
@@ -4427,7 +4427,7 @@
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="str">
-        <f>IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),CONCATENATE(#REF!,"_",$A80,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I80="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G80" s="14" t="str">
@@ -4435,7 +4435,7 @@
         <v/>
       </c>
       <c r="H80" s="14" t="str">
-        <f>IF(AND(I80&lt;&gt;"",I80&lt;&gt;0),IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),CONCATENATE(#REF!,"_",$A80,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I80" s="14" t="str">
@@ -4452,7 +4452,7 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="str">
-        <f>IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),CONCATENATE(#REF!,"_",$A81,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I81="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G81" s="14" t="str">
@@ -4460,7 +4460,7 @@
         <v/>
       </c>
       <c r="H81" s="14" t="str">
-        <f>IF(AND(I81&lt;&gt;"",I81&lt;&gt;0),IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),CONCATENATE(#REF!,"_",$A81,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I81" s="14" t="str">
@@ -4477,7 +4477,7 @@
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="str">
-        <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),CONCATENATE(#REF!,"_",$A82,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I82="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G82" s="14" t="str">
@@ -4485,7 +4485,7 @@
         <v/>
       </c>
       <c r="H82" s="14" t="str">
-        <f>IF(AND(I82&lt;&gt;"",I82&lt;&gt;0),IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),CONCATENATE(#REF!,"_",$A82,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I82" s="14" t="str">
@@ -4502,7 +4502,7 @@
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="str">
-        <f>IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(#REF!,"_",$A83,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I83="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G83" s="14" t="str">
@@ -4510,7 +4510,7 @@
         <v/>
       </c>
       <c r="H83" s="14" t="str">
-        <f>IF(AND(I83&lt;&gt;"",I83&lt;&gt;0),IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(#REF!,"_",$A83,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I83" s="14" t="str">
@@ -4527,7 +4527,7 @@
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="str">
-        <f>IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(#REF!,"_",$A84,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I84="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G84" s="14" t="str">
@@ -4535,7 +4535,7 @@
         <v/>
       </c>
       <c r="H84" s="14" t="str">
-        <f>IF(AND(I84&lt;&gt;"",I84&lt;&gt;0),IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(#REF!,"_",$A84,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I84" s="14" t="str">
@@ -4552,7 +4552,7 @@
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="str">
-        <f>IF(OR(B85&lt;&gt;"",J85&lt;&gt;""),CONCATENATE(#REF!,"_",$A85,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I85="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G85" s="14" t="str">
@@ -4560,7 +4560,7 @@
         <v/>
       </c>
       <c r="H85" s="14" t="str">
-        <f>IF(AND(I85&lt;&gt;"",I85&lt;&gt;0),IF(OR(B85&lt;&gt;"",J85&lt;&gt;""),CONCATENATE(#REF!,"_",$A85,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I85" s="14" t="str">
@@ -4577,7 +4577,7 @@
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14" t="str">
-        <f>IF(OR(B86&lt;&gt;"",J86&lt;&gt;""),CONCATENATE(#REF!,"_",$A86,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I86="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G86" s="14" t="str">
@@ -4585,7 +4585,7 @@
         <v/>
       </c>
       <c r="H86" s="14" t="str">
-        <f>IF(AND(I86&lt;&gt;"",I86&lt;&gt;0),IF(OR(B86&lt;&gt;"",J86&lt;&gt;""),CONCATENATE(#REF!,"_",$A86,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I86" s="14" t="str">
@@ -4602,7 +4602,7 @@
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="str">
-        <f>IF(OR(B87&lt;&gt;"",J87&lt;&gt;""),CONCATENATE(#REF!,"_",$A87,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I87="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G87" s="14" t="str">
@@ -4610,7 +4610,7 @@
         <v/>
       </c>
       <c r="H87" s="14" t="str">
-        <f>IF(AND(I87&lt;&gt;"",I87&lt;&gt;0),IF(OR(B87&lt;&gt;"",J87&lt;&gt;""),CONCATENATE(#REF!,"_",$A87,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I87" s="14" t="str">
@@ -4627,7 +4627,7 @@
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="str">
-        <f>IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),CONCATENATE(#REF!,"_",$A88,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I88="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G88" s="14" t="str">
@@ -4635,7 +4635,7 @@
         <v/>
       </c>
       <c r="H88" s="14" t="str">
-        <f>IF(AND(I88&lt;&gt;"",I88&lt;&gt;0),IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),CONCATENATE(#REF!,"_",$A88,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I88" s="14" t="str">
@@ -4652,7 +4652,7 @@
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="str">
-        <f>IF(OR(B89&lt;&gt;"",J89&lt;&gt;""),CONCATENATE(#REF!,"_",$A89,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I89="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G89" s="14" t="str">
@@ -4660,7 +4660,7 @@
         <v/>
       </c>
       <c r="H89" s="14" t="str">
-        <f>IF(AND(I89&lt;&gt;"",I89&lt;&gt;0),IF(OR(B89&lt;&gt;"",J89&lt;&gt;""),CONCATENATE(#REF!,"_",$A89,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I89" s="14" t="str">
@@ -4677,7 +4677,7 @@
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14" t="str">
-        <f>IF(OR(B90&lt;&gt;"",J90&lt;&gt;""),CONCATENATE(#REF!,"_",$A90,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I90="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G90" s="14" t="str">
@@ -4685,7 +4685,7 @@
         <v/>
       </c>
       <c r="H90" s="14" t="str">
-        <f>IF(AND(I90&lt;&gt;"",I90&lt;&gt;0),IF(OR(B90&lt;&gt;"",J90&lt;&gt;""),CONCATENATE(#REF!,"_",$A90,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I90" s="14" t="str">
@@ -4702,7 +4702,7 @@
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="str">
-        <f>IF(OR(B91&lt;&gt;"",J91&lt;&gt;""),CONCATENATE(#REF!,"_",$A91,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I91="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G91" s="14" t="str">
@@ -4710,7 +4710,7 @@
         <v/>
       </c>
       <c r="H91" s="14" t="str">
-        <f>IF(AND(I91&lt;&gt;"",I91&lt;&gt;0),IF(OR(B91&lt;&gt;"",J91&lt;&gt;""),CONCATENATE(#REF!,"_",$A91,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I91" s="14" t="str">
@@ -4727,7 +4727,7 @@
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="str">
-        <f>IF(OR(B92&lt;&gt;"",J92&lt;&gt;""),CONCATENATE(#REF!,"_",$A92,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I92="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G92" s="14" t="str">
@@ -4735,7 +4735,7 @@
         <v/>
       </c>
       <c r="H92" s="14" t="str">
-        <f>IF(AND(I92&lt;&gt;"",I92&lt;&gt;0),IF(OR(B92&lt;&gt;"",J92&lt;&gt;""),CONCATENATE(#REF!,"_",$A92,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I92" s="14" t="str">
@@ -4752,7 +4752,7 @@
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="str">
-        <f>IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),CONCATENATE(#REF!,"_",$A93,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I93="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G93" s="14" t="str">
@@ -4760,7 +4760,7 @@
         <v/>
       </c>
       <c r="H93" s="14" t="str">
-        <f>IF(AND(I93&lt;&gt;"",I93&lt;&gt;0),IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),CONCATENATE(#REF!,"_",$A93,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I93" s="14" t="str">
@@ -4777,7 +4777,7 @@
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14" t="str">
-        <f>IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),CONCATENATE(#REF!,"_",$A94,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I94="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G94" s="14" t="str">
@@ -4785,7 +4785,7 @@
         <v/>
       </c>
       <c r="H94" s="14" t="str">
-        <f>IF(AND(I94&lt;&gt;"",I94&lt;&gt;0),IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),CONCATENATE(#REF!,"_",$A94,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I94" s="14" t="str">
@@ -4802,7 +4802,7 @@
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="str">
-        <f>IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),CONCATENATE(#REF!,"_",$A95,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I95="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G95" s="14" t="str">
@@ -4810,7 +4810,7 @@
         <v/>
       </c>
       <c r="H95" s="14" t="str">
-        <f>IF(AND(I95&lt;&gt;"",I95&lt;&gt;0),IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),CONCATENATE(#REF!,"_",$A95,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I95" s="14" t="str">
@@ -4827,7 +4827,7 @@
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="str">
-        <f>IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),CONCATENATE(#REF!,"_",$A96,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I96="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G96" s="14" t="str">
@@ -4835,7 +4835,7 @@
         <v/>
       </c>
       <c r="H96" s="14" t="str">
-        <f>IF(AND(I96&lt;&gt;"",I96&lt;&gt;0),IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),CONCATENATE(#REF!,"_",$A96,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I96" s="14" t="str">
@@ -4852,7 +4852,7 @@
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="str">
-        <f>IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),CONCATENATE(#REF!,"_",$A97,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I97="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G97" s="14" t="str">
@@ -4860,7 +4860,7 @@
         <v/>
       </c>
       <c r="H97" s="14" t="str">
-        <f>IF(AND(I97&lt;&gt;"",I97&lt;&gt;0),IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),CONCATENATE(#REF!,"_",$A97,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I97" s="14" t="str">
@@ -4877,7 +4877,7 @@
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14" t="str">
-        <f>IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),CONCATENATE(#REF!,"_",$A98,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I98="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G98" s="14" t="str">
@@ -4885,7 +4885,7 @@
         <v/>
       </c>
       <c r="H98" s="14" t="str">
-        <f>IF(AND(I98&lt;&gt;"",I98&lt;&gt;0),IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),CONCATENATE(#REF!,"_",$A98,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I98" s="14" t="str">
@@ -4902,7 +4902,7 @@
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="str">
-        <f>IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),CONCATENATE(#REF!,"_",$A99,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I99="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G99" s="14" t="str">
@@ -4910,7 +4910,7 @@
         <v/>
       </c>
       <c r="H99" s="14" t="str">
-        <f>IF(AND(I99&lt;&gt;"",I99&lt;&gt;0),IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),CONCATENATE(#REF!,"_",$A99,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I99" s="14" t="str">
@@ -4927,7 +4927,7 @@
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="str">
-        <f>IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),CONCATENATE(#REF!,"_",$A100,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I100="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G100" s="14" t="str">
@@ -4935,7 +4935,7 @@
         <v/>
       </c>
       <c r="H100" s="14" t="str">
-        <f>IF(AND(I100&lt;&gt;"",I100&lt;&gt;0),IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),CONCATENATE(#REF!,"_",$A100,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I100" s="14" t="str">
@@ -4952,7 +4952,7 @@
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="str">
-        <f>IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),CONCATENATE(#REF!,"_",$A101,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I101="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G101" s="14" t="str">
@@ -4960,7 +4960,7 @@
         <v/>
       </c>
       <c r="H101" s="14" t="str">
-        <f>IF(AND(I101&lt;&gt;"",I101&lt;&gt;0),IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),CONCATENATE(#REF!,"_",$A101,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I101" s="14" t="str">
@@ -4977,7 +4977,7 @@
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="14" t="str">
-        <f>IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),CONCATENATE(#REF!,"_",$A102,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I102="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G102" s="14" t="str">
@@ -4985,7 +4985,7 @@
         <v/>
       </c>
       <c r="H102" s="14" t="str">
-        <f>IF(AND(I102&lt;&gt;"",I102&lt;&gt;0),IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),CONCATENATE(#REF!,"_",$A102,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I102" s="14" t="str">
@@ -5002,7 +5002,7 @@
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="str">
-        <f>IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),CONCATENATE(#REF!,"_",$A103,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I103="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G103" s="14" t="str">
@@ -5010,7 +5010,7 @@
         <v/>
       </c>
       <c r="H103" s="14" t="str">
-        <f>IF(AND(I103&lt;&gt;"",I103&lt;&gt;0),IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),CONCATENATE(#REF!,"_",$A103,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I103" s="14" t="str">
@@ -5027,7 +5027,7 @@
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="str">
-        <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),CONCATENATE(#REF!,"_",$A104,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I104="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G104" s="14" t="str">
@@ -5035,7 +5035,7 @@
         <v/>
       </c>
       <c r="H104" s="14" t="str">
-        <f>IF(AND(I104&lt;&gt;"",I104&lt;&gt;0),IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),CONCATENATE(#REF!,"_",$A104,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I104" s="14" t="str">
@@ -5052,7 +5052,7 @@
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="14" t="str">
-        <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),CONCATENATE(#REF!,"_",$A105,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I105="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G105" s="14" t="str">
@@ -5060,7 +5060,7 @@
         <v/>
       </c>
       <c r="H105" s="14" t="str">
-        <f>IF(AND(I105&lt;&gt;"",I105&lt;&gt;0),IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),CONCATENATE(#REF!,"_",$A105,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I105" s="14" t="str">
@@ -5077,7 +5077,7 @@
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="14" t="str">
-        <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),CONCATENATE(#REF!,"_",$A106,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I106="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G106" s="14" t="str">
@@ -5085,7 +5085,7 @@
         <v/>
       </c>
       <c r="H106" s="14" t="str">
-        <f>IF(AND(I106&lt;&gt;"",I106&lt;&gt;0),IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),CONCATENATE(#REF!,"_",$A106,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I106" s="14" t="str">
@@ -5102,7 +5102,7 @@
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="str">
-        <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),CONCATENATE(#REF!,"_",$A107,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I107="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G107" s="14" t="str">
@@ -5110,7 +5110,7 @@
         <v/>
       </c>
       <c r="H107" s="14" t="str">
-        <f>IF(AND(I107&lt;&gt;"",I107&lt;&gt;0),IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),CONCATENATE(#REF!,"_",$A107,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I107" s="14" t="str">
@@ -5127,7 +5127,7 @@
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14" t="str">
-        <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),CONCATENATE(#REF!,"_",$A108,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I108="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G108" s="14" t="str">
@@ -5135,7 +5135,7 @@
         <v/>
       </c>
       <c r="H108" s="14" t="str">
-        <f>IF(AND(I108&lt;&gt;"",I108&lt;&gt;0),IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),CONCATENATE(#REF!,"_",$A108,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I108" s="14" t="str">
@@ -5152,7 +5152,7 @@
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
       <c r="F109" s="14" t="str">
-        <f>IF(OR(B109&lt;&gt;"",J109&lt;&gt;""),CONCATENATE(#REF!,"_",$A109,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I109="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G109" s="14" t="str">
@@ -5160,7 +5160,7 @@
         <v/>
       </c>
       <c r="H109" s="14" t="str">
-        <f>IF(AND(I109&lt;&gt;"",I109&lt;&gt;0),IF(OR(B109&lt;&gt;"",J109&lt;&gt;""),CONCATENATE(#REF!,"_",$A109,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I109" s="14" t="str">
